--- a/data/trans_orig/P21D_4_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{158ACDC7-A3CB-438C-9E4A-A075D62E569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB68B3F5-EF68-43D0-B554-54021FD1D0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73C24FEC-128B-4BA8-B352-B35E06616470}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DF9FE07-C98C-4BF2-AE50-F18E8C68ECC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
   <si>
     <t>Población que, necesitando atención sanitaria psicológica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>0,7%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,33%</t>
+    <t>0,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,26%</t>
+    <t>99,3%</t>
   </si>
   <si>
     <t>99,93%</t>
   </si>
   <si>
-    <t>99,67%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -122,7 +122,7 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,2%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -131,298 +131,292 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>2,23%</t>
+    <t>2,1%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,15%</t>
+    <t>99,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -837,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7467DA62-CE39-4CD3-8B66-4ADFC16E212B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A39243E-7F44-4F4E-ADB5-0A65A894658B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2067,7 +2061,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2076,13 +2070,13 @@
         <v>1530</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,7 +2094,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>21</v>
@@ -2109,13 +2103,13 @@
         <v>513</v>
       </c>
       <c r="I26" s="7">
-        <v>419824</v>
+        <v>419823</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -2127,10 +2121,10 @@
         <v>836554</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -2160,7 +2154,7 @@
         <v>515</v>
       </c>
       <c r="I27" s="7">
-        <v>421354</v>
+        <v>421353</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>21</v>
@@ -2201,13 +2195,13 @@
         <v>3522</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -2216,13 +2210,13 @@
         <v>14182</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -2231,13 +2225,13 @@
         <v>17704</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2246,13 @@
         <v>1515009</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="H29" s="7">
         <v>2351</v>
@@ -2267,13 +2261,13 @@
         <v>1668352</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M29" s="7">
         <v>3807</v>
@@ -2282,13 +2276,13 @@
         <v>3183361</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,7 +2338,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_4_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB68B3F5-EF68-43D0-B554-54021FD1D0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7B5F283-E0B2-4751-A6C0-F78D7E7EB3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DF9FE07-C98C-4BF2-AE50-F18E8C68ECC1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA4A8935-CC9C-44F2-B220-FB1816402959}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -831,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A39243E-7F44-4F4E-ADB5-0A65A894658B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47B372B-9889-4C4D-94EA-04FF9C399103}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_4_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7B5F283-E0B2-4751-A6C0-F78D7E7EB3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{951BD632-A54B-407A-9598-CD0169F3C0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA4A8935-CC9C-44F2-B220-FB1816402959}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14611672-623B-4708-959C-FFB508341EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
   <si>
     <t>Población que, necesitando atención sanitaria psicológica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,28%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,3%</t>
+    <t>99,26%</t>
   </si>
   <si>
     <t>99,93%</t>
   </si>
   <si>
-    <t>99,72%</t>
+    <t>99,67%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -122,7 +122,7 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -131,292 +131,298 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>99,5%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -831,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47B372B-9889-4C4D-94EA-04FF9C399103}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B37296-0501-473B-ADEE-72AFDCE46030}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2061,7 +2067,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2070,13 +2076,13 @@
         <v>1530</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,7 +2100,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>21</v>
@@ -2103,13 +2109,13 @@
         <v>513</v>
       </c>
       <c r="I26" s="7">
-        <v>419823</v>
+        <v>419824</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -2121,10 +2127,10 @@
         <v>836554</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -2154,7 +2160,7 @@
         <v>515</v>
       </c>
       <c r="I27" s="7">
-        <v>421353</v>
+        <v>421354</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>21</v>
@@ -2195,13 +2201,13 @@
         <v>3522</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -2210,13 +2216,13 @@
         <v>14182</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -2225,13 +2231,13 @@
         <v>17704</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2252,13 @@
         <v>1515009</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>2351</v>
@@ -2261,13 +2267,13 @@
         <v>1668352</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M29" s="7">
         <v>3807</v>
@@ -2276,13 +2282,13 @@
         <v>3183361</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2344,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_4_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{951BD632-A54B-407A-9598-CD0169F3C0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F992A2-B1E1-4DDA-A376-1083C16C58E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14611672-623B-4708-959C-FFB508341EC2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B6DACB2B-9760-4EA0-AC46-F1AD7430FC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="122">
   <si>
     <t>Población que, necesitando atención sanitaria psicológica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -80,349 +80,325 @@
     <t>1,25%</t>
   </si>
   <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -837,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B37296-0501-473B-ADEE-72AFDCE46030}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21324102-5C45-4A0E-B871-5A5DCB80D5A3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -973,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -988,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1009,7 +985,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1024,7 +1000,7 @@
         <v>232</v>
       </c>
       <c r="I5" s="7">
-        <v>117364</v>
+        <v>126151</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1039,7 +1015,7 @@
         <v>385</v>
       </c>
       <c r="N5" s="7">
-        <v>242856</v>
+        <v>280417</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1060,7 +1036,7 @@
         <v>153</v>
       </c>
       <c r="D6" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -1075,7 +1051,7 @@
         <v>233</v>
       </c>
       <c r="I6" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -1090,7 +1066,7 @@
         <v>386</v>
       </c>
       <c r="N6" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -1113,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1077</v>
+        <v>1004</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1128,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1631</v>
+        <v>1500</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
@@ -1143,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>2708</v>
+        <v>2504</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -1164,7 +1140,7 @@
         <v>159</v>
       </c>
       <c r="D8" s="7">
-        <v>210196</v>
+        <v>210269</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
@@ -1179,7 +1155,7 @@
         <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>252342</v>
+        <v>234633</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>37</v>
@@ -1194,7 +1170,7 @@
         <v>480</v>
       </c>
       <c r="N8" s="7">
-        <v>462538</v>
+        <v>444902</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -1230,7 +1206,7 @@
         <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>253973</v>
+        <v>236133</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -1245,7 +1221,7 @@
         <v>484</v>
       </c>
       <c r="N9" s="7">
-        <v>465246</v>
+        <v>447406</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1268,46 +1244,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>5705</v>
+        <v>5339</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>6405</v>
+        <v>6032</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1319,13 +1295,13 @@
         <v>112</v>
       </c>
       <c r="D11" s="7">
-        <v>96964</v>
+        <v>94219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1334,31 +1310,31 @@
         <v>215</v>
       </c>
       <c r="I11" s="7">
-        <v>149561</v>
+        <v>140202</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>327</v>
       </c>
       <c r="N11" s="7">
-        <v>246525</v>
+        <v>234421</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1370,7 +1346,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -1385,7 +1361,7 @@
         <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -1400,7 +1376,7 @@
         <v>336</v>
       </c>
       <c r="N12" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1414,7 +1390,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1423,16 +1399,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1447,22 +1423,22 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1474,13 +1450,13 @@
         <v>129</v>
       </c>
       <c r="D14" s="7">
-        <v>145404</v>
+        <v>139693</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1489,13 +1465,13 @@
         <v>278</v>
       </c>
       <c r="I14" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -1504,13 +1480,13 @@
         <v>407</v>
       </c>
       <c r="N14" s="7">
-        <v>352565</v>
+        <v>386253</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1525,7 +1501,7 @@
         <v>131</v>
       </c>
       <c r="D15" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -1540,7 +1516,7 @@
         <v>278</v>
       </c>
       <c r="I15" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -1555,7 +1531,7 @@
         <v>409</v>
       </c>
       <c r="N15" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -1569,7 +1545,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1587,37 +1563,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1281</v>
+        <v>1166</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1281</v>
+        <v>1166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,13 +1605,13 @@
         <v>108</v>
       </c>
       <c r="D17" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -1644,31 +1620,31 @@
         <v>160</v>
       </c>
       <c r="I17" s="7">
-        <v>78075</v>
+        <v>70196</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>268</v>
       </c>
       <c r="N17" s="7">
-        <v>156117</v>
+        <v>140900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,7 +1656,7 @@
         <v>108</v>
       </c>
       <c r="D18" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -1695,7 +1671,7 @@
         <v>163</v>
       </c>
       <c r="I18" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -1710,7 +1686,7 @@
         <v>271</v>
       </c>
       <c r="N18" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -1724,7 +1700,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1742,7 +1718,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1757,7 +1733,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1772,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,13 +1760,13 @@
         <v>177</v>
       </c>
       <c r="D20" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -1799,13 +1775,13 @@
         <v>200</v>
       </c>
       <c r="I20" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -1814,13 +1790,13 @@
         <v>377</v>
       </c>
       <c r="N20" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>21</v>
@@ -1835,7 +1811,7 @@
         <v>177</v>
       </c>
       <c r="D21" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -1850,7 +1826,7 @@
         <v>200</v>
       </c>
       <c r="I21" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -1865,7 +1841,7 @@
         <v>377</v>
       </c>
       <c r="N21" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -1879,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1897,37 +1873,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>3876</v>
+        <v>3576</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>3876</v>
+        <v>3576</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,13 +1915,13 @@
         <v>285</v>
       </c>
       <c r="D23" s="7">
-        <v>312072</v>
+        <v>311736</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>21</v>
@@ -1954,31 +1930,31 @@
         <v>432</v>
       </c>
       <c r="I23" s="7">
-        <v>324615</v>
+        <v>303278</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>717</v>
       </c>
       <c r="N23" s="7">
-        <v>636687</v>
+        <v>615014</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,7 +1966,7 @@
         <v>285</v>
       </c>
       <c r="D24" s="7">
-        <v>312072</v>
+        <v>311736</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -2005,7 +1981,7 @@
         <v>436</v>
       </c>
       <c r="I24" s="7">
-        <v>328491</v>
+        <v>306854</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>21</v>
@@ -2020,7 +1996,7 @@
         <v>721</v>
       </c>
       <c r="N24" s="7">
-        <v>640563</v>
+        <v>618590</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>21</v>
@@ -2034,7 +2010,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2052,37 +2028,37 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>1530</v>
+        <v>1319</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>1530</v>
+        <v>1319</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,13 +2070,13 @@
         <v>333</v>
       </c>
       <c r="D26" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>21</v>
@@ -2109,13 +2085,13 @@
         <v>513</v>
       </c>
       <c r="I26" s="7">
-        <v>419824</v>
+        <v>346996</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -2124,10 +2100,10 @@
         <v>846</v>
       </c>
       <c r="N26" s="7">
-        <v>836554</v>
+        <v>900911</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>114</v>
@@ -2145,7 +2121,7 @@
         <v>333</v>
       </c>
       <c r="D27" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>21</v>
@@ -2160,7 +2136,7 @@
         <v>515</v>
       </c>
       <c r="I27" s="7">
-        <v>421354</v>
+        <v>348315</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>21</v>
@@ -2175,7 +2151,7 @@
         <v>848</v>
       </c>
       <c r="N27" s="7">
-        <v>838084</v>
+        <v>902230</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>21</v>
@@ -2198,46 +2174,46 @@
         <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>3522</v>
+        <v>3381</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
       </c>
       <c r="I28" s="7">
-        <v>14182</v>
+        <v>13066</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
       </c>
       <c r="N28" s="7">
-        <v>17704</v>
+        <v>16447</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,46 +2225,46 @@
         <v>1456</v>
       </c>
       <c r="D29" s="7">
-        <v>1515009</v>
+        <v>1660397</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="H29" s="7">
         <v>2351</v>
       </c>
       <c r="I29" s="7">
-        <v>1668352</v>
+        <v>1578968</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="M29" s="7">
         <v>3807</v>
       </c>
       <c r="N29" s="7">
-        <v>3183361</v>
+        <v>3239365</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,7 +2276,7 @@
         <v>1460</v>
       </c>
       <c r="D30" s="7">
-        <v>1518531</v>
+        <v>1663778</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>21</v>
@@ -2315,7 +2291,7 @@
         <v>2372</v>
       </c>
       <c r="I30" s="7">
-        <v>1682534</v>
+        <v>1592034</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>21</v>
@@ -2330,7 +2306,7 @@
         <v>3832</v>
       </c>
       <c r="N30" s="7">
-        <v>3201065</v>
+        <v>3255812</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>21</v>
@@ -2344,7 +2320,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
